--- a/DRM_Output/3_Synthetic_Portfolio.xlsx
+++ b/DRM_Output/3_Synthetic_Portfolio.xlsx
@@ -470,10 +470,10 @@
         <v>3598.39990234375</v>
       </c>
       <c r="C2" t="n">
-        <v>3754.926304466932</v>
+        <v>3754.926314090528</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4400212775199179</v>
+        <v>-0.4400212742716576</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>3574.89990234375</v>
       </c>
       <c r="C3" t="n">
-        <v>3740.703558528129</v>
+        <v>3740.703568090923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7467677277097664</v>
+        <v>0.7467678212490227</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -508,13 +508,13 @@
         <v>3600.800048828125</v>
       </c>
       <c r="C4" t="n">
-        <v>3754.217337235013</v>
+        <v>3754.217346706791</v>
       </c>
       <c r="D4" t="n">
-        <v>1.925426409829697</v>
+        <v>1.925426595997578</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>3592.60009765625</v>
       </c>
       <c r="C5" t="n">
-        <v>3748.493915814388</v>
+        <v>3748.493925218951</v>
       </c>
       <c r="D5" t="n">
-        <v>3.354716464797548</v>
+        <v>3.354716731429789</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -546,10 +546,10 @@
         <v>3553.60009765625</v>
       </c>
       <c r="C6" t="n">
-        <v>3726.090085514056</v>
+        <v>3726.090094837826</v>
       </c>
       <c r="D6" t="n">
-        <v>4.129037223980049</v>
+        <v>4.129037606456905</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>3529.60009765625</v>
       </c>
       <c r="C7" t="n">
-        <v>3712.617471262061</v>
+        <v>3712.61748046806</v>
       </c>
       <c r="D7" t="n">
-        <v>5.332500584077025</v>
+        <v>5.332501060511277</v>
       </c>
       <c r="E7" t="n">
         <v>4.547473508864641e-13</v>
@@ -584,10 +584,10 @@
         <v>3525</v>
       </c>
       <c r="C8" t="n">
-        <v>3709.265202241575</v>
+        <v>3709.265211357181</v>
       </c>
       <c r="D8" t="n">
-        <v>6.81389074236381</v>
+        <v>6.813891299220586</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>3550</v>
       </c>
       <c r="C9" t="n">
-        <v>3721.013019425836</v>
+        <v>3721.013028509665</v>
       </c>
       <c r="D9" t="n">
-        <v>8.059678777151248</v>
+        <v>8.059679429053176</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>3539.699951171875</v>
       </c>
       <c r="C10" t="n">
-        <v>3714.598087800482</v>
+        <v>3714.598096787608</v>
       </c>
       <c r="D10" t="n">
-        <v>9.529724841184361</v>
+        <v>9.529725577439194</v>
       </c>
       <c r="E10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>3579.800048828125</v>
       </c>
       <c r="C11" t="n">
-        <v>3734.783499952911</v>
+        <v>3734.783508894331</v>
       </c>
       <c r="D11" t="n">
-        <v>10.35573263847664</v>
+        <v>10.35573349599736</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -660,10 +660,10 @@
         <v>3586.199951171875</v>
       </c>
       <c r="C12" t="n">
-        <v>3737.173968852821</v>
+        <v>3737.173977711541</v>
       </c>
       <c r="D12" t="n">
-        <v>11.90457721611642</v>
+        <v>11.90457815800983</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>3667.800048828125</v>
       </c>
       <c r="C13" t="n">
-        <v>3784.308502331392</v>
+        <v>3784.308510913193</v>
       </c>
       <c r="D13" t="n">
-        <v>10.44423365242892</v>
+        <v>10.44423483955143</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>3685.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3794.376480409232</v>
+        <v>3794.376488824909</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8631623487754</v>
+        <v>11.86316363217838</v>
       </c>
       <c r="E14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         <v>3686</v>
       </c>
       <c r="C15" t="n">
-        <v>3793.480948198332</v>
+        <v>3793.480956527105</v>
       </c>
       <c r="D15" t="n">
-        <v>13.42161989112492</v>
+        <v>13.42162126566063</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         <v>3675.39990234375</v>
       </c>
       <c r="C16" t="n">
-        <v>3785.455542017708</v>
+        <v>3785.455550313465</v>
       </c>
       <c r="D16" t="n">
-        <v>14.94707444816822</v>
+        <v>14.94707591693259</v>
       </c>
       <c r="E16" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -755,10 +755,10 @@
         <v>3644.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3764.991933923632</v>
+        <v>3764.991942257622</v>
       </c>
       <c r="D17" t="n">
-        <v>16.10887887299191</v>
+        <v>16.10888045521074</v>
       </c>
       <c r="E17" t="n">
         <v>-4.547473508864641e-13</v>
@@ -774,10 +774,10 @@
         <v>3657.60009765625</v>
       </c>
       <c r="C18" t="n">
-        <v>3771.758730221542</v>
+        <v>3771.758738421815</v>
       </c>
       <c r="D18" t="n">
-        <v>17.67097873519765</v>
+        <v>17.67098041323084</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>3673.800048828125</v>
       </c>
       <c r="C19" t="n">
-        <v>3780.632059793764</v>
+        <v>3780.632067836211</v>
       </c>
       <c r="D19" t="n">
-        <v>19.19709445141416</v>
+        <v>19.19709622929759</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>3644.39990234375</v>
       </c>
       <c r="C20" t="n">
-        <v>3761.072661215971</v>
+        <v>3761.072669288468</v>
       </c>
       <c r="D20" t="n">
-        <v>20.44186008461747</v>
+        <v>20.441861977592</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -831,10 +831,10 @@
         <v>3729.5</v>
       </c>
       <c r="C21" t="n">
-        <v>3814.834120415557</v>
+        <v>3814.834127943966</v>
       </c>
       <c r="D21" t="n">
-        <v>18.68450531082044</v>
+        <v>18.68450746941153</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>3688.39990234375</v>
       </c>
       <c r="C22" t="n">
-        <v>3786.040758686224</v>
+        <v>3786.040766383041</v>
       </c>
       <c r="D22" t="n">
-        <v>19.55983823195584</v>
+        <v>19.5598405254641</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="23">
@@ -869,13 +869,13 @@
         <v>3659</v>
       </c>
       <c r="C23" t="n">
-        <v>3766.001502306465</v>
+        <v>3766.001510052593</v>
       </c>
       <c r="D23" t="n">
-        <v>20.843840103415</v>
+        <v>20.84384251624715</v>
       </c>
       <c r="E23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         <v>3670.300048828125</v>
       </c>
       <c r="C24" t="n">
-        <v>3771.697906573555</v>
+        <v>3771.69791417637</v>
       </c>
       <c r="D24" t="n">
-        <v>22.5248181044617</v>
+        <v>22.52482061997898</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="25">
@@ -907,10 +907,10 @@
         <v>3733.10009765625</v>
       </c>
       <c r="C25" t="n">
-        <v>3811.951052386227</v>
+        <v>3811.951059504679</v>
       </c>
       <c r="D25" t="n">
-        <v>22.33249951915195</v>
+        <v>22.33250222936294</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>3737</v>
       </c>
       <c r="C26" t="n">
-        <v>3813.277516925776</v>
+        <v>3813.277523914813</v>
       </c>
       <c r="D26" t="n">
-        <v>24.00646006925717</v>
+        <v>24.00646288849839</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -945,10 +945,10 @@
         <v>3729.699951171875</v>
       </c>
       <c r="C27" t="n">
-        <v>3806.795918802143</v>
+        <v>3806.795925746125</v>
       </c>
       <c r="D27" t="n">
-        <v>25.6863196318177</v>
+        <v>25.68632256204319</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>3729.800048828125</v>
       </c>
       <c r="C28" t="n">
-        <v>3805.432045544801</v>
+        <v>3805.432052385778</v>
       </c>
       <c r="D28" t="n">
-        <v>27.41744231832308</v>
+        <v>27.41744535985026</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>3769.199951171875</v>
       </c>
       <c r="C29" t="n">
-        <v>3832.070047761807</v>
+        <v>3832.070054166255</v>
       </c>
       <c r="D29" t="n">
-        <v>28.388112618793</v>
+        <v>28.38811580586525</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         <v>3784</v>
       </c>
       <c r="C30" t="n">
-        <v>3841.593660592719</v>
+        <v>3841.593666748486</v>
       </c>
       <c r="D30" t="n">
-        <v>29.95086579056579</v>
+        <v>29.95086910148211</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         <v>3769.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3829.423913671892</v>
+        <v>3829.423919854328</v>
       </c>
       <c r="D31" t="n">
-        <v>31.54915492118607</v>
+        <v>31.54915835687552</v>
       </c>
       <c r="E31" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         <v>3744.300048828125</v>
       </c>
       <c r="C32" t="n">
-        <v>3809.697422076444</v>
+        <v>3809.697428372352</v>
       </c>
       <c r="D32" t="n">
-        <v>33.0160470937094</v>
+        <v>33.01605066144248</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>3828.699951171875</v>
       </c>
       <c r="C33" t="n">
-        <v>3871.784559859444</v>
+        <v>3871.784565203486</v>
       </c>
       <c r="D33" t="n">
-        <v>31.34263651854781</v>
+        <v>31.34264033017962</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="34">
@@ -1078,10 +1078,10 @@
         <v>3861.800048828125</v>
       </c>
       <c r="C34" t="n">
-        <v>3897.118887032131</v>
+        <v>3897.118891878907</v>
       </c>
       <c r="D34" t="n">
-        <v>32.39911521319209</v>
+        <v>32.39911916987921</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1097,13 +1097,13 @@
         <v>3839.39990234375</v>
       </c>
       <c r="C35" t="n">
-        <v>3877.587020548035</v>
+        <v>3877.587025525312</v>
       </c>
       <c r="D35" t="n">
-        <v>33.74817170044207</v>
+        <v>33.74817579795581</v>
       </c>
       <c r="E35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1116,10 +1116,10 @@
         <v>3872.699951171875</v>
       </c>
       <c r="C36" t="n">
-        <v>3903.554194217014</v>
+        <v>3903.554198680525</v>
       </c>
       <c r="D36" t="n">
-        <v>34.78447255309993</v>
+        <v>34.78447679941564</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>3888.199951171875</v>
       </c>
       <c r="C37" t="n">
-        <v>3915.328771521706</v>
+        <v>3915.328775669992</v>
       </c>
       <c r="D37" t="n">
-        <v>36.10452125321581</v>
+        <v>36.10452564580237</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1154,13 +1154,13 @@
         <v>3918.699951171875</v>
       </c>
       <c r="C38" t="n">
-        <v>3940.379436618948</v>
+        <v>3940.379440271714</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0848435015514</v>
+        <v>37.08484804217187</v>
       </c>
       <c r="E38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1173,13 @@
         <v>3904.89990234375</v>
       </c>
       <c r="C39" t="n">
-        <v>3927.207999696263</v>
+        <v>3927.208003373102</v>
       </c>
       <c r="D39" t="n">
-        <v>38.35160006163505</v>
+        <v>38.35160475299926</v>
       </c>
       <c r="E39" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1192,13 +1192,13 @@
         <v>3923.800048828125</v>
       </c>
       <c r="C40" t="n">
-        <v>3942.579022285403</v>
+        <v>3942.579025599706</v>
       </c>
       <c r="D40" t="n">
-        <v>39.5022823379004</v>
+        <v>39.50228718173094</v>
       </c>
       <c r="E40" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="41">
@@ -1211,10 +1211,10 @@
         <v>3972.800048828125</v>
       </c>
       <c r="C41" t="n">
-        <v>3985.590114567627</v>
+        <v>3985.590117189731</v>
       </c>
       <c r="D41" t="n">
-        <v>39.87063490550872</v>
+        <v>39.87063988477166</v>
       </c>
       <c r="E41" t="n">
         <v>-4.547473508864641e-13</v>
@@ -1230,10 +1230,10 @@
         <v>3958.10009765625</v>
       </c>
       <c r="C42" t="n">
-        <v>3971.216304225949</v>
+        <v>3971.216306865563</v>
       </c>
       <c r="D42" t="n">
-        <v>40.90187700301431</v>
+        <v>40.90188213500505</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1249,13 +1249,13 @@
         <v>3987.5</v>
       </c>
       <c r="C43" t="n">
-        <v>3997.329063597164</v>
+        <v>3997.329065784576</v>
       </c>
       <c r="D43" t="n">
-        <v>41.64984323441377</v>
+        <v>41.64984850959763</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1268,10 +1268,10 @@
         <v>4030.89990234375</v>
       </c>
       <c r="C44" t="n">
-        <v>4037.334928436356</v>
+        <v>4037.334930079363</v>
       </c>
       <c r="D44" t="n">
-        <v>42.02830223670117</v>
+        <v>42.02830762954409</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1287,13 +1287,13 @@
         <v>3980.5</v>
       </c>
       <c r="C45" t="n">
-        <v>3989.088458794878</v>
+        <v>3989.088460765704</v>
       </c>
       <c r="D45" t="n">
-        <v>42.46881352899527</v>
+        <v>42.46881904043903</v>
       </c>
       <c r="E45" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1306,10 +1306,10 @@
         <v>3924.39990234375</v>
       </c>
       <c r="C46" t="n">
-        <v>3936.394160155412</v>
+        <v>3936.394162560152</v>
       </c>
       <c r="D46" t="n">
-        <v>42.86474846551391</v>
+        <v>42.86475410583444</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
         <v>3924.39990234375</v>
       </c>
       <c r="C47" t="n">
-        <v>3935.300852491341</v>
+        <v>3935.300854735425</v>
       </c>
       <c r="D47" t="n">
-        <v>44.05616167664084</v>
+        <v>44.05616748984494</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         <v>3881.60009765625</v>
       </c>
       <c r="C48" t="n">
-        <v>3895.449519051466</v>
+        <v>3895.449521609253</v>
       </c>
       <c r="D48" t="n">
-        <v>44.88204628272752</v>
+        <v>44.88205225889851</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="49">
@@ -1363,10 +1363,10 @@
         <v>3882.5</v>
       </c>
       <c r="C49" t="n">
-        <v>3894.953329954355</v>
+        <v>3894.953332327233</v>
       </c>
       <c r="D49" t="n">
-        <v>46.29476936385981</v>
+        <v>46.2947755272553</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>3918.5</v>
       </c>
       <c r="C50" t="n">
-        <v>3926.644540981359</v>
+        <v>3926.644542786723</v>
       </c>
       <c r="D50" t="n">
-        <v>47.04232950209325</v>
+        <v>47.0423358337498</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1401,13 +1401,13 @@
         <v>3955</v>
       </c>
       <c r="C51" t="n">
-        <v>3959.995242037787</v>
+        <v>3959.995243330459</v>
       </c>
       <c r="D51" t="n">
-        <v>47.61103417333561</v>
+        <v>47.6110406540306</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="52">
@@ -1420,10 +1420,10 @@
         <v>3954.60009765625</v>
       </c>
       <c r="C52" t="n">
-        <v>3958.814988257403</v>
+        <v>3958.814989394262</v>
       </c>
       <c r="D52" t="n">
-        <v>48.46986189854124</v>
+        <v>48.46986854848865</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>4002.5</v>
       </c>
       <c r="C53" t="n">
-        <v>4004.505209396847</v>
+        <v>4004.505210057341</v>
       </c>
       <c r="D53" t="n">
-        <v>48.63201495139811</v>
+        <v>48.63202169622309</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>4004.39990234375</v>
       </c>
       <c r="C54" t="n">
-        <v>4005.902380262847</v>
+        <v>4005.902380789463</v>
       </c>
       <c r="D54" t="n">
-        <v>49.1245550712456</v>
+        <v>49.12456194630659</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         <v>4027.699951171875</v>
       </c>
       <c r="C55" t="n">
-        <v>4028.49848923638</v>
+        <v>4028.498489557234</v>
       </c>
       <c r="D55" t="n">
-        <v>49.41780920389192</v>
+        <v>49.41781617519337</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>3999.60009765625</v>
       </c>
       <c r="C56" t="n">
-        <v>4000.417625990127</v>
+        <v>4000.417626312885</v>
       </c>
       <c r="D56" t="n">
-        <v>49.73525667083277</v>
+        <v>49.73526374347057</v>
       </c>
       <c r="E56" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="57">
@@ -1515,10 +1515,10 @@
         <v>4019.60009765625</v>
       </c>
       <c r="C57" t="n">
-        <v>4019.979199291909</v>
+        <v>4019.979199465589</v>
       </c>
       <c r="D57" t="n">
-        <v>49.95633886013547</v>
+        <v>49.95634601340271</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>4037.39990234375</v>
       </c>
       <c r="C58" t="n">
-        <v>4037.550777423734</v>
+        <v>4037.550777504591</v>
       </c>
       <c r="D58" t="n">
-        <v>50.09018082754665</v>
+        <v>50.09018803627669</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         <v>4024.89990234375</v>
       </c>
       <c r="C59" t="n">
-        <v>4024.988504780816</v>
+        <v>4024.988504832001</v>
       </c>
       <c r="D59" t="n">
-        <v>50.20317387645218</v>
+        <v>50.20318113378562</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         <v>4013.300048828125</v>
       </c>
       <c r="C60" t="n">
-        <v>4013.341894819231</v>
+        <v>4013.341894845964</v>
       </c>
       <c r="D60" t="n">
-        <v>50.28574610000487</v>
+        <v>50.28575339508598</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>3996.699951171875</v>
       </c>
       <c r="C61" t="n">
-        <v>3996.716219374401</v>
+        <v>3996.716219386066</v>
       </c>
       <c r="D61" t="n">
-        <v>50.34144713413434</v>
+        <v>50.34145445591139</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1610,10 +1610,10 @@
         <v>4062</v>
       </c>
       <c r="C62" t="n">
-        <v>4062.000139498587</v>
+        <v>4062.000139498749</v>
       </c>
       <c r="D62" t="n">
-        <v>50.33890569742562</v>
+        <v>50.33891301337826</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>4081.300048828125</v>
       </c>
       <c r="C63" t="n">
-        <v>4081.300049042105</v>
+        <v>4081.300049042106</v>
       </c>
       <c r="D63" t="n">
-        <v>50.35092451995706</v>
+        <v>50.35093183769914</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>4069.60009765625</v>
       </c>
       <c r="D64" t="n">
-        <v>50.36291464778287</v>
+        <v>50.36292196726799</v>
       </c>
       <c r="E64" t="n">
         <v>-4.547473508864641e-13</v>
